--- a/data/financial_statements/sofp/MMM.xlsx
+++ b/data/financial_statements/sofp/MMM.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -125,9 +245,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -180,12 +297,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -482,2939 +596,2999 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN35"/>
+  <dimension ref="A1:AO35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>3893000000</v>
+      </c>
+      <c r="C2">
         <v>3589000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>2984000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>3359000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>4765000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>5733000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>5500000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>5137000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>5038000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>4561000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>4466000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>4477000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>2451000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>7761000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>2988000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>3477000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>3233000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>3523000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>3186000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>4095000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>4129000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>3417000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>2794000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>2314000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>2678000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>2666000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>1865000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>1513000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>1916000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>1758000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>3485000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>2809000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>3336000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>2696000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>3009000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>2814000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>3337000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>3311000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>4252000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>4376000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>4532000000</v>
+      </c>
+      <c r="C3">
         <v>4722000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>4914000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>4815000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>4660000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>4916000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>4991000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>4817000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>4705000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>4623000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>4459000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>4821000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>4791000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>5020000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>5374000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>5173000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>5020000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>5329000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>5383000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>5252000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>4911000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>5156000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>4919000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>4722000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>4392000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>4743000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>4667000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>4485000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>4154000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>4610000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>4578000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>4408000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>4238000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>4711000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>4759000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>4598000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>4253000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>4594000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>4542000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>4418000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>5372000000</v>
+      </c>
+      <c r="C4">
         <v>5615000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>5645000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>5290000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>4985000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>4950000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>4842000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>4458000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>4239000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>3984000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>4168000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>4217000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>4134000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>4007000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>4300000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>4538000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>4366000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>4437000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>4238000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>4295000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>4034000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>3975000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>3838000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>3612000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>3385000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>3611000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>3613000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>3627000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>3518000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>3709000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>3847000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>3704000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>3706000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>3945000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>4093000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>3972000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>3864000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>3948000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>3919000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>3819000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>456000000</v>
+      </c>
+      <c r="C5">
         <v>502000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>383000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>427000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>339000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>326000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>377000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>398000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>325000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>426000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>446000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>971000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>891000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>515000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>440000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>473000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>349000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>385000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>370000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>344000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>266000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>1108000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>1090000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>1253000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>450000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>1159000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>1291000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>1249000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>1398000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>1531000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>1521000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>1597000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>1023000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>1329000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>1332000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>1378000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>1279000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>1429000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>1270000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>1242000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>14688000000</v>
+      </c>
+      <c r="C6">
         <v>14895000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>14514000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>14452000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>15403000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>16426000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>16343000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>15345000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>14982000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>14110000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>14106000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>15090000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>12971000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>18020000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>14051000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>14374000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>13709000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>14419000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>13890000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>14818000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>14277000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>13656000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>12641000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>11901000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>11726000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>12179000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>11436000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>10874000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>10986000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>11608000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>13431000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>12518000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>12303000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>12681000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>13193000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>12762000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>12733000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>13282000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>13983000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>13855000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>9178000000</v>
+      </c>
+      <c r="C7">
         <v>9196000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>9319000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>9389000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>9429000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>9323000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>9358000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>9240000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>9421000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>9216000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>9089000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>9165000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>9333000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>8891000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>8998000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>8829000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>8738000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>8630000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>8645000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>8864000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>8866000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>8658000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>8566000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>8551000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>8516000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>8671000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>8604000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>8614000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>8515000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>8470000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>8389000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>8286000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>8489000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>8499000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>8685000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>8630000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>8652000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>8448000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>8329000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>8318000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
         <v>111000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>70000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>303000000</v>
-      </c>
-      <c r="G8">
-        <v>21000000</v>
       </c>
       <c r="H8">
         <v>21000000</v>
       </c>
       <c r="I8">
+        <v>21000000</v>
+      </c>
+      <c r="J8">
         <v>224000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>31000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>62000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>83000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>263000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>156000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>154000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>150000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>141000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>135000000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>130000000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>126000000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>125000000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>119000000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>115000000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>117000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>1213000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>1317000000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>1480000000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>1575000000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>1697000000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>1696000000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>1613000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>17489000000</v>
+      </c>
+      <c r="C9">
         <v>17484000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>18057000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>18509000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>18774000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>19023000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>19294000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>19351000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>19637000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>19461000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>19393000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>19503000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>19823000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>13257000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>13538000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>13658000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>12708000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>12849000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>12894000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>13455000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>13449000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>11396000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>11306000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>11527000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>11486000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>11852000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>11833000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>11926000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>11850000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>11986000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>8340000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>8330000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>8485000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>8729000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>9025000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>8988000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>9033000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>9087000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>9017000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>9087000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>4271000000</v>
+      </c>
+      <c r="C10">
         <v>3800000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>2909000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>2640000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>2608000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>2666000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>2440000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>2373000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>2440000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>1759000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>1651000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>1605000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>1674000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>1548000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>1503000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>1482000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>1345000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>1377000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>1349000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>1438000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>1395000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>1266000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>1207000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>1102000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>1178000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>952000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>985000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>1212000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>1218000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>1009000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>1055000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>1338000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>1769000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>934000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>1078000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>1063000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>980000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>1066000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>1083000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>1137000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>31767000000</v>
+      </c>
+      <c r="C11">
         <v>31281000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>31120000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>31403000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>31669000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>31852000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>31964000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>31835000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>32362000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>31280000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>30973000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>31122000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>31688000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>24530000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>24918000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>24766000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>22791000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>22856000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>22888000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>23757000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>23710000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>21581000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>21316000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>21391000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>21180000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>21872000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>21799000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>22108000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>21897000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>21650000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>17957000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>18125000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>18906000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>20095000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>20777000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>20785000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>20817000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>20322000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>20147000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>20174000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>46455000000</v>
+      </c>
+      <c r="C12">
         <v>46176000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>45634000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>45855000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>47072000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>48278000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>48307000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>47180000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>47344000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>45390000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>45079000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>46212000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>44659000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>42550000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>38969000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>39140000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>36500000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>37275000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>36778000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>38575000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>37987000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>35237000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>33957000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>33292000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>32906000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>34051000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>33235000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>32982000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>32883000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>33258000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>31388000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>30643000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>31209000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>32776000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>33970000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>33547000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>33550000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>33604000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>34130000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>34029000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>3183000000</v>
+      </c>
+      <c r="C13">
         <v>3063000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>3273000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>3164000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>2994000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>2862000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>2931000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>2670000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>2561000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>2208000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>1975000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>2207000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>2228000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>2079000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>2130000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>2309000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>2266000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>2029000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>1871000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>1874000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>1945000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>1824000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>1782000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>1701000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>1798000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>1621000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>1650000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>1581000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>1694000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>1600000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>1714000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>1801000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>1807000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>1796000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>1844000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>1866000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>1799000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>1718000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>1920000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>1820000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>692000000</v>
+      </c>
+      <c r="C14">
         <v>717000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>704000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>638000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1020000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1019000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>832000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>655000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>747000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>721000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>500000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>523000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>702000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>669000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>604000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>517000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>749000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>783000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>646000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>563000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>870000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>856000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>666000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>532000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>678000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>729000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>580000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>468000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>644000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>684000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>582000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>446000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>732000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>728000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>656000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>491000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>708000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>688000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>589000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>466000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>1938000000</v>
+      </c>
+      <c r="C15">
         <v>1856000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>2257000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>1877000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1307000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>1972000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>1981000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>1368000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>806000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>1169000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>1486000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>3248000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>2795000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>1960000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>892000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>790000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>1211000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>1307000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>3225000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>3449000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>1853000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>835000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>213000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>909000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>972000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>1282000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>2450000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>2212000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>2044000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>2279000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>86000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>132000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>106000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>2119000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>1650000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>2176000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>1683000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>2244000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>1062000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>1072000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>259000000</v>
+      </c>
+      <c r="C16">
         <v>270000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>228000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>274000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>260000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>278000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>247000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>277000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>300000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>220000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>371000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>136000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>194000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>137000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>223000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>183000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>243000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>186000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>293000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>282000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>310000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>374000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>432000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>433000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>299000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>364000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>169000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>590000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>332000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>105000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>327000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>464000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>435000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>382000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>478000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>481000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>417000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>373000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>460000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>392000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>3190000000</v>
+      </c>
+      <c r="C17">
         <v>3396000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>3178000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>2938000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>3191000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>3242000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>3181000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>3126000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>3278000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>2840000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>2702000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>2776000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>3056000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>2735000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>3169000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>3071000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>2775000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>3031000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>2867000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>2791000000</v>
-      </c>
-      <c r="U17">
-        <v>2709000000</v>
       </c>
       <c r="V17">
         <v>2709000000</v>
       </c>
       <c r="W17">
+        <v>2709000000</v>
+      </c>
+      <c r="X17">
         <v>2604000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>2420000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>2472000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>2404000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>2405000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>2327000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>2404000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>2364000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>2386000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>2239000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>2884000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>2680000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>2412000000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>2436000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>2891000000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>2416000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>2304000000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>2187000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>9523000000</v>
+      </c>
+      <c r="C18">
         <v>9543000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>9896000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>9152000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>9035000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>9635000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>9440000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>8363000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>7948000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>7410000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>7282000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>9134000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>9222000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>7821000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>7265000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>7125000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>7244000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>7336000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>8902000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>8959000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>7687000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>6598000000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>5697000000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>5995000000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>6219000000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>6400000000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>7254000000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>7178000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>7118000000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>7032000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>5095000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>5082000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>5964000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>7705000000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>7040000000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>7450000000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>7498000000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>7439000000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>6335000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>5937000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>14001000000</v>
+      </c>
+      <c r="C19">
         <v>13849000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>14019000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>14801000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>16056000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>16193000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>16267000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>16819000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>17989000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>18429000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>19276000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>19247000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>17518000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>17479000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>14914000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>15580000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>13411000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>13539000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>11294000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>12211000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>12096000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>10828000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>11088000000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>10802000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>10678000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>11079000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>9299000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>8927000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>8753000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>8974000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>8431000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>6459000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>6705000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>5225000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>5323000000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>4401000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>4326000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>3533000000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>4884000000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>4864000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20">
         <v>2502000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>2638000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>2792000000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>2870000000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>3987000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>4184000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>4231000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>4405000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>3679000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>3724000000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>3794000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>3911000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>2667000000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>2761000000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>2919000000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>2987000000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>3183000000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>3254000000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>3381000000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>3620000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>3748000000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>3761000000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>3764000000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>4018000000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>3179000000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>3418000000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>3454000000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>3520000000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>3462000000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>3683000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>3764000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>3843000000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>1849000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>1829000000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>1809000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>1794000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>2694000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>2909000000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>3014000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21">
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21">
         <v>-123000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>16000000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>-538000000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>-98000000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>12000000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>29000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>-405000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>8161000000</v>
+      </c>
+      <c r="C22">
         <v>5556000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>4681000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>3498000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>3403000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>3353000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>3297000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>3330000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>3462000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>3324000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>3275000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>3225000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>3275000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>3235000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>3268000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>3228000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>3010000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>2906000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>2900000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>2985000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>2962000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>1861000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>1767000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>1691000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>1648000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>1345000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>1327000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>1649000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>2024000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>1566000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>1049000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>1386000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>1555000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>1791000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>1932000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>1963000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>1984000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>1686000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>1683000000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>1686000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>22162000000</v>
+      </c>
+      <c r="C23">
         <v>22477000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>21922000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>21699000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>22920000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>24113000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>24351000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>24989000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>26465000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>26037000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>26882000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>26869000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>25311000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>23965000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>21562000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>22258000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>19408000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>19628000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>17448000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>18577000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>18678000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>16437000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>16616000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>16257000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>16344000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>15603000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>14044000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>14030000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>14297000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>14002000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>13163000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>11609000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>12103000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>8865000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>9084000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>8173000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>8104000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>7913000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>9476000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>9564000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>31685000000</v>
+      </c>
+      <c r="C24">
         <v>32020000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>31818000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>30851000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>31955000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>33748000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>33791000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>33352000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>34413000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>33447000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>34164000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>36003000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>34533000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>31786000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>28827000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>29383000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>26652000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>26964000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>26350000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>27536000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>26365000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>23035000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>22313000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>22252000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>22563000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>22003000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>21298000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>21208000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>21415000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>21034000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>18258000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>16691000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>18067000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>16570000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>16124000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>15623000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>15602000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>15352000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>15811000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>15501000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25">
         <v>6654000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>6607000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>6559000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>6429000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>6383000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>6337000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>6283000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>6162000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>6116000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>6074000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>6024000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>5907000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>5861000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>5812000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>5755000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>5643000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>5597000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>5550000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>5496000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>5352000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>5302000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>5244000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>5189000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>5061000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>5012000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>4963000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>4916000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>4791000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>4731000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>4685000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>4607000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>4379000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>4277000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>4641000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>4545000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>4375000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>4309000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>4243000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>4179000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>9000000</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="C26">
         <v>9000000</v>
@@ -3530,1102 +3704,1123 @@
       <c r="AN26">
         <v>9000000</v>
       </c>
+      <c r="AO26">
+        <v>9000000</v>
+      </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27">
         <v>48245000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>45269000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>46056000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>45821000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>45361000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>44824000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>44255000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>43821000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>43285000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>42759000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>42345000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>42135000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>42085000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>41362000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>41159000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>40636000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>40120000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>39442000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>38453000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>39115000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>39454000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>38793000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>38094000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>37907000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>37745000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>37194000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>36785000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>36296000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>36235000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>35615000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>35080000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>34317000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>34484000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>33836000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>33312000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>32416000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>32412000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>31716000000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>31073000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28">
         <v>32843000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>30781000000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>30860000000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>30463000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>29673000000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>29236000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>29020000000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>29404000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>29570000000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>29699000000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>29817000000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>29849000000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>29865000000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>29828000000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>29668000000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>29626000000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>28510000000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>27617000000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>26178000000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>25887000000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>25706000000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>25466000000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>25354000000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>25434000000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>24618000000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>24088000000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>23716000000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>23308000000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>22322000000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>20983000000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>19458000000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>19307000000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>18489000000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>17466000000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>16577000000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>15385000000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>14124000000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>12926000000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>12178000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29">
         <v>14156000000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>13816000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>15004000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>15117000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>14530000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>14516000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>13828000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>12931000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>11943000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>10915000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>10209000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>10126000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>10764000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>10142000000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>9757000000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>9848000000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>10311000000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>10428000000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>11039000000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>11622000000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>12202000000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>11644000000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>11040000000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>10343000000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>12048000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>11937000000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>11774000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>11468000000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>12224000000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>13130000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>13952000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>13142000000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>16206000000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>17846000000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>17924000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>17948000000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>18252000000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>18319000000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>18528000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>14770000000</v>
+      </c>
+      <c r="C30">
         <v>14156000000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>13816000000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>15004000000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>15117000000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>14530000000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>14516000000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>13828000000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>12931000000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>11943000000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>10915000000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>10209000000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>10126000000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>10764000000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>10142000000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>9757000000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>9848000000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>10311000000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>10428000000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>11039000000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>11622000000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>12202000000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>11644000000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>11040000000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>10343000000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>12048000000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>11937000000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>11774000000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>11468000000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>12224000000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>13130000000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>13952000000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>13142000000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>16206000000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>17846000000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>17924000000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>17948000000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>18252000000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>18319000000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>18528000000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>46455000000</v>
+      </c>
+      <c r="C31">
         <v>46176000000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>45634000000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>45855000000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>47072000000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>48278000000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>48307000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>47180000000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>47344000000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>45390000000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>45079000000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>46212000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>44659000000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>42550000000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>38969000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>39140000000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>36500000000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>37275000000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>36778000000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>38575000000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>37987000000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>35237000000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>33957000000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>33292000000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>32906000000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>34051000000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>33235000000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>32982000000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>32883000000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>33258000000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>31388000000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>30643000000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>31209000000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>32776000000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>33970000000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>33547000000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>33550000000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>33604000000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>34130000000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>34029000000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
+        <v>549245000</v>
+      </c>
+      <c r="C32">
         <v>552743000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>569604000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>569059000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>571845000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>576253000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>578638000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>579675000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>577750000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>576822000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>576019000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>575196000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>575185000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>575051000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>575279000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>576427000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>576575000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>582287000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>586614000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>593692000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>594884000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>595608000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>596767000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>597240000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>596726000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>601466000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>604400000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>606515000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>609330000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>615713000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>624745000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>634341000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>635135000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>640819000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>647969000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>654278000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>663296000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>673270000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>683468000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>690195000</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
+        <v>-2719000000</v>
+      </c>
+      <c r="C33">
         <v>-3328000000</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>-4241000000</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>-3505000000</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>-3657000000</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>-4493000000</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>-4778000000</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>-5523000000</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>-6706000000</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>-7518000000</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>-8478000000</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>-9294000000</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>-9697000000</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>-2493000000</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>-3396000000</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>-3901000000</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>-2860000000</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>-2538000000</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>-2466000000</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>-2416000000</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>-1827000000</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>806000000</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>338000000</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>-487000000</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>-1143000000</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>196000000</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>104000000</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>-152000000</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>-382000000</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>238000000</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>4790000000</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>5622000000</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>4657000000</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>7477000000</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>8821000000</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>8936000000</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>8915000000</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>9165000000</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>9302000000</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>9441000000</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
+        <v>12046000000</v>
+      </c>
+      <c r="C34">
         <v>12116000000</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>13292000000</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>13319000000</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>12598000000</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>12432000000</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>12748000000</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>13050000000</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>13757000000</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>15037000000</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>16296000000</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>18018000000</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>17862000000</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>11678000000</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>12818000000</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>12893000000</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>11389000000</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>11323000000</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>11333000000</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>11565000000</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>9820000000</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>8246000000</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>8507000000</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>9397000000</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>8972000000</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>9695000000</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>9884000000</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>9626000000</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>8881000000</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>9495000000</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>5032000000</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>3782000000</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>3475000000</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>4648000000</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>3964000000</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>3763000000</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>2672000000</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>2466000000</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>1694000000</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>1560000000</v>
       </c>
     </row>
-    <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+    <row r="35" spans="1:41">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B35">
+        <v>15939000000</v>
+      </c>
+      <c r="C35">
         <v>15705000000</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>16276000000</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>16678000000</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>17363000000</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>18165000000</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>18248000000</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>18187000000</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>18795000000</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>19598000000</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>20762000000</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>22495000000</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>20313000000</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>19439000000</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>15806000000</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>16370000000</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>14622000000</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>14846000000</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>14519000000</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>15660000000</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>13949000000</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>11663000000</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>11301000000</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>11711000000</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>11650000000</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>12361000000</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>11749000000</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>11139000000</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>10797000000</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>11253000000</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>8517000000</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>6591000000</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>6811000000</v>
       </c>
-      <c r="AH35">
+      <c r="AI35">
         <v>7344000000</v>
       </c>
-      <c r="AI35">
+      <c r="AJ35">
         <v>6973000000</v>
       </c>
-      <c r="AJ35">
+      <c r="AK35">
         <v>6577000000</v>
       </c>
-      <c r="AK35">
+      <c r="AL35">
         <v>6009000000</v>
       </c>
-      <c r="AL35">
+      <c r="AM35">
         <v>5777000000</v>
       </c>
-      <c r="AM35">
+      <c r="AN35">
         <v>5946000000</v>
       </c>
-      <c r="AN35">
+      <c r="AO35">
         <v>5936000000</v>
       </c>
     </row>
